--- a/ASD1/Labo_01/graphique.xlsx
+++ b/ASD1/Labo_01/graphique.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Heig-vd\ASD1\Labo\Labo_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HEIG\ASD1\Labo_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>N</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>Algo3</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>mult</t>
   </si>
 </sst>
 </file>
@@ -125,7 +131,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-CH"/>
-              <a:t>Comparaison des 3 alorithmes de calcul de polynôme</a:t>
+              <a:t>Comparaison des 3 algorithmes de calcul de polynôme</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -440,11 +446,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="227835616"/>
-        <c:axId val="227838976"/>
+        <c:axId val="272082880"/>
+        <c:axId val="272052304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="227835616"/>
+        <c:axId val="272082880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -487,7 +493,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227838976"/>
+        <c:crossAx val="272052304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -495,7 +501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="227838976"/>
+        <c:axId val="272052304"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -547,7 +553,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227835616"/>
+        <c:crossAx val="272082880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1175,16 +1181,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>90486</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1472,7 +1478,7 @@
   <dimension ref="A2:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,6 +1505,24 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">

--- a/ASD1/Labo_01/graphique.xlsx
+++ b/ASD1/Labo_01/graphique.xlsx
@@ -131,7 +131,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-CH"/>
-              <a:t>Comparaison des 3 algorithmes de calcul de polynôme</a:t>
+              <a:t>Nombre d'opérations (add+mult)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CH"/>
+              <a:t>en fonction de n</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -168,7 +176,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11930739743058434"/>
+          <c:y val="0.11201204007619928"/>
+          <c:w val="0.85656979555187185"/>
+          <c:h val="0.74884603650307979"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -446,11 +464,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="272082880"/>
-        <c:axId val="272052304"/>
+        <c:axId val="218061152"/>
+        <c:axId val="218061712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="272082880"/>
+        <c:axId val="218061152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -493,7 +511,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272052304"/>
+        <c:crossAx val="218061712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -501,7 +519,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="272052304"/>
+        <c:axId val="218061712"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -529,7 +547,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -553,7 +573,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272082880"/>
+        <c:crossAx val="218061152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1181,16 +1201,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1478,7 +1498,7 @@
   <dimension ref="A2:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ASD1/Labo_01/graphique.xlsx
+++ b/ASD1/Labo_01/graphique.xlsx
@@ -110,71 +110,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="fr-CH"/>
-              <a:t>Nombre d'opérations (add+mult)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-CH" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="fr-CH"/>
-              <a:t>en fonction de n</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -464,11 +400,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="218061152"/>
-        <c:axId val="218061712"/>
+        <c:axId val="187097520"/>
+        <c:axId val="187098080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="218061152"/>
+        <c:axId val="187097520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -511,7 +447,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218061712"/>
+        <c:crossAx val="187098080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -519,7 +455,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="218061712"/>
+        <c:axId val="187098080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -573,7 +509,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="218061152"/>
+        <c:crossAx val="187097520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1498,7 +1434,7 @@
   <dimension ref="A2:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
